--- a/trac_tongue/xlsx/MU4-16-20190111-8.xlsx
+++ b/trac_tongue/xlsx/MU4-16-20190111-8.xlsx
@@ -6139,7 +6139,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6169,22 +6169,22 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>102</v>
+        <v>139</v>
       </c>
       <c r="B2">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C2">
-        <v>2.8281363306743996</v>
+        <v>2.6105873821609844</v>
       </c>
       <c r="D2" t="str">
         <v>points-0</v>
       </c>
       <c r="E2">
-        <v>53.54056919642857</v>
+        <v>47.42094866071429</v>
       </c>
       <c r="F2">
-        <v>96.98742745535715</v>
+        <v>115.93142857142857</v>
       </c>
       <c r="G2" t="str">
         <v>#F44336</v>
@@ -6192,22 +6192,22 @@
     </row>
     <row r="3">
       <c r="A3">
-        <v>78</v>
+        <v>138</v>
       </c>
       <c r="B3">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C3">
-        <v>2.900652646845538</v>
+        <v>2.683103698332123</v>
       </c>
       <c r="D3" t="str">
         <v>points-0</v>
       </c>
       <c r="E3">
-        <v>50.614854910714286</v>
+        <v>50.34666294642857</v>
       </c>
       <c r="F3">
-        <v>100.6445703125</v>
+        <v>117.02857142857142</v>
       </c>
       <c r="G3" t="str">
         <v>#F44336</v>
@@ -6215,22 +6215,22 @@
     </row>
     <row r="4">
       <c r="A4">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="B4">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C4">
-        <v>2.9731689630166764</v>
+        <v>2.755620014503261</v>
       </c>
       <c r="D4" t="str">
         <v>points-0</v>
       </c>
       <c r="E4">
-        <v>50.614854910714286</v>
+        <v>51.44380580357143</v>
       </c>
       <c r="F4">
-        <v>121.85599888392858</v>
+        <v>106.78857142857143</v>
       </c>
       <c r="G4" t="str">
         <v>#F44336</v>
@@ -6238,22 +6238,22 @@
     </row>
     <row r="5">
       <c r="A5">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="B5">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C5">
-        <v>3.045685279187815</v>
+        <v>2.8281363306743996</v>
       </c>
       <c r="D5" t="str">
         <v>points-0</v>
       </c>
       <c r="E5">
-        <v>49.15199776785714</v>
+        <v>53.54056919642857</v>
       </c>
       <c r="F5">
-        <v>122.58742745535714</v>
+        <v>96.98742745535715</v>
       </c>
       <c r="G5" t="str">
         <v>#F44336</v>
@@ -6261,22 +6261,22 @@
     </row>
     <row r="6">
       <c r="A6">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B6">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C6">
-        <v>3.1182015953589532</v>
+        <v>2.900652646845538</v>
       </c>
       <c r="D6" t="str">
         <v>points-0</v>
       </c>
       <c r="E6">
-        <v>46.591997767857144</v>
+        <v>50.614854910714286</v>
       </c>
       <c r="F6">
-        <v>120.75885602678571</v>
+        <v>100.6445703125</v>
       </c>
       <c r="G6" t="str">
         <v>#F44336</v>
@@ -6284,30 +6284,99 @@
     </row>
     <row r="7">
       <c r="A7">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="B7">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C7">
-        <v>3.1907179115300917</v>
+        <v>2.9731689630166764</v>
       </c>
       <c r="D7" t="str">
         <v>points-0</v>
       </c>
       <c r="E7">
-        <v>45.86056919642857</v>
+        <v>50.614854910714286</v>
       </c>
       <c r="F7">
-        <v>119.66171316964285</v>
+        <v>121.85599888392858</v>
       </c>
       <c r="G7" t="str">
         <v>#F44336</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8">
+        <v>80</v>
+      </c>
+      <c r="B8">
+        <v>42</v>
+      </c>
+      <c r="C8">
+        <v>3.045685279187815</v>
+      </c>
+      <c r="D8" t="str">
+        <v>points-0</v>
+      </c>
+      <c r="E8">
+        <v>49.15199776785714</v>
+      </c>
+      <c r="F8">
+        <v>122.58742745535714</v>
+      </c>
+      <c r="G8" t="str">
+        <v>#F44336</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>81</v>
+      </c>
+      <c r="B9">
+        <v>43</v>
+      </c>
+      <c r="C9">
+        <v>3.1182015953589532</v>
+      </c>
+      <c r="D9" t="str">
+        <v>points-0</v>
+      </c>
+      <c r="E9">
+        <v>46.591997767857144</v>
+      </c>
+      <c r="F9">
+        <v>120.75885602678571</v>
+      </c>
+      <c r="G9" t="str">
+        <v>#F44336</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>101</v>
+      </c>
+      <c r="B10">
+        <v>44</v>
+      </c>
+      <c r="C10">
+        <v>3.1907179115300917</v>
+      </c>
+      <c r="D10" t="str">
+        <v>points-0</v>
+      </c>
+      <c r="E10">
+        <v>45.86056919642857</v>
+      </c>
+      <c r="F10">
+        <v>119.66171316964285</v>
+      </c>
+      <c r="G10" t="str">
+        <v>#F44336</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G7"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G10"/>
   </ignoredErrors>
 </worksheet>
 </file>
